--- a/Excel template time schedule project.xlsx
+++ b/Excel template time schedule project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\informationTechnologyP1\projectwebsite\time_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937933B4-3AC0-4783-A1C7-D280616E3D38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22066713-FE3C-4A24-8E49-8AF6D4E2D573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:R8"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,19 +863,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="K6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -903,19 +903,19 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="K8" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1010,21 +1010,21 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>SUM(A6+A8+A10+A12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="K20" s="3">
         <f>SUM(K6:N19)</f>
-        <v>11.3</v>
+        <v>7.3</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
         <f>SUM(O6:R19)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
